--- a/inst/planilha.xlsx
+++ b/inst/planilha.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,47 +817,52 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>76ea8747-e14a-4d27-821e-266cb631c1ca</t>
+          <t>64f0a366-afc3-449b-a89d-7aac3b6256a7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-06-05T00:00:00.000Z</t>
+          <t>2023-06-21T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AVE 1 SÃO FRANCISCO ITABAPOANA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>João Bobo (Nystalus chacuru)</t>
+          <t>AVE 1 NOVA IGUAÇU</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2023-06-01T00:00:00.000Z</t>
+          <t>2023-06-20T00:00:00.000Z</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Ave da espécie João Bobo (Nystalus chacuru) encontrada morta na Estrada da Cobiça, na área da Estação Ecológica Estadual de Guaxindiba no dia 01/06/2023 retirada por agentes da guarda municipal: Efraim Guimarães da Silva- (2299756-0902 e Marcelo Nunes Cardoso - (22 99983-6697. Todos estavam com EPIs recomendados: máscara, luva, capote e óculos. A ave foi enterrada próximo ao local que foi encontrada que já é próprio para descarte.  *Detectado através do Clipping.</t>
+          <t>Em 21/06/23, Recebemos informações por meio de whatssap do SEAPPA RJ, que 01 ave caiu em uma casa próximo a reserva do Tinguá no dia 20/06, trata-se de Trinta-réis. Responsável pela casa Sra Cláudia (21 . Não houve coleta laboratorial, AVE MORREU.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Guarda Ambiental (GAM)</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2023-06-05T00:00:00.000Z</t>
+          <t>2023-06-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Marianna</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Técnico</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Estação Ecológica - Estrada da Cobiça, s/nº - Nova Belém, São Francisco de Itabapoana - RJ, 28230-000</t>
+          <t>próximo a reserva do Tinguá</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -867,64 +872,54 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Nystalus chacuru</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Foi enterrado em local próprio para descarte de aves mortas na Estação Ecológica.</t>
+          <t>Trinta-réis-real</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2fe5ecc7-42ed-450e-9f47-fabc671f8166</t>
+          <t>76ea8747-e14a-4d27-821e-266cb631c1ca</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-05-25T00:00:00.000Z</t>
+          <t>2023-06-05T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AVE 2 CABO FRIO</t>
+          <t>AVE 1 SÃO FRANCISCO ITABAPOANA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>João Bobo (Nystalus chacuru)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2023-05-25T00:00:00.000Z</t>
+          <t>2023-06-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ave da espécie João Bobo (Nystalus chacuru) encontrada morta na Estrada da Cobiça, na área da Estação Ecológica Estadual de Guaxindiba no dia 01/06/2023 retirada por agentes da guarda municipal: Efraim Guimarães da Silva- (2299756-0902 e Marcelo Nunes Cardoso - (22 99983-6697. Todos estavam com EPIs recomendados: máscara, luva, capote e óculos. A ave foi enterrada próximo ao local que foi encontrada que já é próprio para descarte.  *Detectado através do Clipping.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>VIGILÂNCIA EPIDEMIOLÓGIA</t>
+          <t>Guarda Ambiental (GAM)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2023-05-25T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>THAÍS GUIMARÃES</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>BIOLOGA</t>
+          <t>2023-06-05T00:00:00.000Z</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>BAIRRO PASSAGEM</t>
+          <t>Estação Ecológica - Estrada da Cobiça, s/nº - Nova Belém, São Francisco de Itabapoana - RJ, 28230-000</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -934,7 +929,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>PHALACROCORAX BRASILIANOS</t>
+          <t>Nystalus chacuru</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -942,61 +937,56 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>nao</t>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Foi enterrado em local próprio para descarte de aves mortas na Estação Ecológica.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0158f0a0-bc3c-4c1a-a103-428cba178126</t>
+          <t>2fe5ecc7-42ed-450e-9f47-fabc671f8166</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-06-11T00:00:00.000Z</t>
+          <t>2023-05-25T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AVE 2 NILÓPOLIS</t>
+          <t>AVE 2 CABO FRIO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2023-06-11T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>193 Ocorrência BOMBEIRO Nº: C20230128813, data: 11/06/2023, Horário: 13:00h. Foi encaminhada por e-mail para o notifica.ses.rj@gmail.com. Solicitante: Temilda Contato do Solicitante: (21988951596 . Endereço: Rua José Couto Guimarães 906, Nilópolis, Rio de Janeiro - RJ. Ponto Referência: referência: atrás do cemitério Observação: segundo a solicitante duas aves, que esta não sou identificar a espécie, apareceram mortas em seu quintal.</t>
+          <t>2023-05-25T00:00:00.000Z</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>193 - BOMBEIROS</t>
+          <t>VIGILÂNCIA EPIDEMIOLÓGIA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2023-06-11T00:00:00.000Z</t>
+          <t>2023-05-25T00:00:00.000Z</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Laiza Silva de Souza</t>
+          <t>THAÍS GUIMARÃES</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Técnico / Médica Veterinária</t>
+          <t>BIOLOGA</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Endereço: Rua José Couto Guimarães 906, Nilópolis, Rio de Janeiro - RJ . Ponto de Referência: referência: atrás do cemitério</t>
+          <t>BAIRRO PASSAGEM</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1006,7 +996,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Sem dados. Apenas informa que foram 02 aves encontradas mortas no quintal da solicitante Sra.Temilda, contato do Solicitante: (21988951596. Solicitante ligou para 193 (Bombeiros) e informou o caso. Em 13/06/23 - recebemos atualização da Valquíria (Agricultura) que o animal foi descartado.</t>
+          <t>PHALACROCORAX BRASILIANOS</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1014,56 +1004,61 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Sem informações</t>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>nao</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4cb1d84a-daab-41d8-b0e1-a03f0a65b83b</t>
+          <t>0158f0a0-bc3c-4c1a-a103-428cba178126</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-06-05T00:00:00.000Z</t>
+          <t>2023-06-11T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AVE 2 SÃO FRANCISCO ITABAPOANA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Garça Moura (Ardea Cocoi)</t>
+          <t>AVE 2 NILÓPOLIS</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2023-06-03T00:00:00.000Z</t>
+          <t>2023-06-11T00:00:00.000Z</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Ave da espécie Garça Moura (Ardea Cocoi) encontrada morta na Estrada da Cobiça, na área da Estação Ecológica Estadual de Guaxindiba no dia 03/06/2023 retirada por agentes da guarda municipal: Efraim Guimarães  da Silva- (2299756-0902 e Marcelo Nunes Cardoso - (22 99983-6697. Todos  estavam com EPIs recomendados: máscara, luva, capote e óculos. A ave foi enterrada próximo ao local que foi encontrada que já é próprio para descarte. *Detectado através do Clipping.</t>
+          <t>193 Ocorrência BOMBEIRO Nº: C20230128813, data: 11/06/2023, Horário: 13:00h. Foi encaminhada por e-mail para o notifica.ses.rj@gmail.com. Solicitante: Temilda Contato do Solicitante: (21988951596 . Endereço: Rua José Couto Guimarães 906, Nilópolis, Rio de Janeiro - RJ. Ponto Referência: referência: atrás do cemitério Observação: segundo a solicitante duas aves, que esta não sou identificar a espécie, apareceram mortas em seu quintal.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Guarda Ambiental (GAM)</t>
+          <t>193 - BOMBEIROS</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2023-06-05T00:00:00.000Z</t>
+          <t>2023-06-11T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Laiza Silva de Souza</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Técnico / Médica Veterinária</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Estação Ecológica - Estrada da Cobiça, s/nº - Nova Belém, São Francisco de Itabapoana - RJ, 28230-000</t>
+          <t>Endereço: Rua José Couto Guimarães 906, Nilópolis, Rio de Janeiro - RJ . Ponto de Referência: referência: atrás do cemitério</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1073,7 +1068,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Ardea Cocoi</t>
+          <t>Sem dados. Apenas informa que foram 02 aves encontradas mortas no quintal da solicitante Sra.Temilda, contato do Solicitante: (21988951596. Solicitante ligou para 193 (Bombeiros) e informou o caso. Em 13/06/23 - recebemos atualização da Valquíria (Agricultura) que o animal foi descartado.</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1083,49 +1078,54 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Foi enterrado em local próprio para descarte de aves mortas na Estação Ecológica.</t>
+          <t>Sem informações</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ee87f3be-c8fd-4904-982b-4140b3dbac72</t>
+          <t>4cb1d84a-daab-41d8-b0e1-a03f0a65b83b</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-05-26T00:00:00.000Z</t>
+          <t>2023-06-05T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AVE 3 CABO FRIO</t>
+          <t>AVE 2 SÃO FRANCISCO ITABAPOANA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Garça Moura (Ardea Cocoi)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2023-05-26T00:00:00.000Z</t>
+          <t>2023-06-03T00:00:00.000Z</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>MORADOR ENTROU EM CONTATO COM A GUARDA AMBIENTAL RELATANDO AVE MORTA EM FRENTE A SUA RESIDÊNCIA, DOIS PROFISSIONAIS DA GUARDA FORAM AO LOCAL E RECOLHERAM A AVE, QUE JÁ HAVIA SIDO COLOCADA EM UMA CAIXA PELO MORADOR (ASSIM RELATO DO MESMO). INFORMOU TAMBÉM QUE AO MANUSEAR A AVE ESTAVA UTILIZANDO LUVAS E MÁSCARA.</t>
+          <t>Ave da espécie Garça Moura (Ardea Cocoi) encontrada morta na Estrada da Cobiça, na área da Estação Ecológica Estadual de Guaxindiba no dia 03/06/2023 retirada por agentes da guarda municipal: Efraim Guimarães  da Silva- (2299756-0902 e Marcelo Nunes Cardoso - (22 99983-6697. Todos  estavam com EPIs recomendados: máscara, luva, capote e óculos. A ave foi enterrada próximo ao local que foi encontrada que já é próprio para descarte. *Detectado através do Clipping.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>VIGILÂNCIA EPIDEMIOLÓGICA</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>THAÍS GUIMARÃES</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>BIOLOGA</t>
+          <t>Guarda Ambiental (GAM)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2023-06-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Estação Ecológica - Estrada da Cobiça, s/nº - Nova Belém, São Francisco de Itabapoana - RJ, 28230-000</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>PORPUYRIO MARTINIOUS</t>
+          <t>Ardea Cocoi</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1143,61 +1143,51 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>nao</t>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Foi enterrado em local próprio para descarte de aves mortas na Estação Ecológica.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2ed0f85e-7b36-4f9c-a6ef-4b796fcded1b</t>
+          <t>ee87f3be-c8fd-4904-982b-4140b3dbac72</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-05-24T00:00:00.000Z</t>
+          <t>2023-05-26T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AVE 3 SÃO JOÃO DA BARRA</t>
+          <t>AVE 3 CABO FRIO</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2023-05-24T00:00:00.000Z</t>
+          <t>2023-05-26T00:00:00.000Z</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Ave encontrada morta, sem coleta laboratorial. Segundo informações da vigilância do município, a ave foi retirada do local por profissionais da secretaria municipal com uso de EPI.</t>
+          <t>MORADOR ENTROU EM CONTATO COM A GUARDA AMBIENTAL RELATANDO AVE MORTA EM FRENTE A SUA RESIDÊNCIA, DOIS PROFISSIONAIS DA GUARDA FORAM AO LOCAL E RECOLHERAM A AVE, QUE JÁ HAVIA SIDO COLOCADA EM UMA CAIXA PELO MORADOR (ASSIM RELATO DO MESMO). INFORMOU TAMBÉM QUE AO MANUSEAR A AVE ESTAVA UTILIZANDO LUVAS E MÁSCARA.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Vigilância Epidemiológica de São João da Barra</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2023-05-24T00:00:00.000Z</t>
+          <t>VIGILÂNCIA EPIDEMIOLÓGICA</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Fabiana</t>
+          <t>THAÍS GUIMARÃES</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Coordenadora de vigilância</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Azeitonas, São João da Barra</t>
+          <t>BIOLOGA</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1205,71 +1195,76 @@
           <t>ave_silvestre</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>PORPUYRIO MARTINIOUS</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>ave enterrada no local que foi encontrada</t>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>nao</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8f205bb7-3b6f-4a6b-8e52-09547084e280</t>
+          <t>182be6a3-3265-41ab-9343-d29b94cff0e9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-05-24T00:00:00.000Z</t>
+          <t>2023-06-21T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AVE 4 SÃO JOÃO DA BARRA</t>
+          <t>AVE 3 SÃO FRANCISCO DE ITABAPOANA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2023-05-24T00:00:00.000Z</t>
+          <t>2023-06-19T00:00:00.000Z</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ave encontrada morta, sem coleta laboratorial. Segundo informações da vigilância do município, a ave foi retirada do local por profissionais da secretaria municipal com uso de EPI.</t>
+          <t>Em 20/06, por meio do e-mail sinansfi@gmail.com recebemos informações a respeito de 01 ave . O Popular encontrou a ave  morta, ocorreu transporte do animal, sendo o transporte realizado no saco plástico. O animal foi recebido pela Guarda Ambiental (GAM), pelos colaboradores Marcelo Cardoso e Efraim Guimarães. A carcaça foi encaminhada para a EMBRAPA. Data da localização: 16/06/23 às 11:00hs, no endereço: Rua Antônio Pinheiro Filho, Chácara J.N. Coordenadas de captura das aves: 21.4967727 ; 41.1183594. Notificante: Beatriz Melo Alves da Silva, telefone: (2199702-8423. Sem sintomas.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Vigilância Epidemiológica de São João da Barra</t>
+          <t>CIEVS</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2023-05-24T00:00:00.000Z</t>
+          <t>2023-06-16T00:00:00.000Z</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Fabiana</t>
+          <t>Marianna</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Coordenadora de vigilância</t>
+          <t>Técnico</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Azeitonas, São João da Barra</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>ave_silvestre</t>
+          <t>Rua Antônio Pinheiro Filho, Chácara J.N.</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>galinha-d'angola ou pintada-da-guiné (Numida meleagris)</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1279,14 +1274,14 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>ave enterrada no local que foi encontrada</t>
+          <t>EMBRAPA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6ded2b0a-08d5-44cd-9f90-c045dd04948a</t>
+          <t>2ed0f85e-7b36-4f9c-a6ef-4b796fcded1b</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1296,7 +1291,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AVE 5 SÃO JOÃO DA BARRA</t>
+          <t>AVE 3 SÃO JOÃO DA BARRA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1342,63 +1337,63 @@
       <c r="Q14" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>ave enterrada no local que foi encontrada</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3ce0d1b0-d406-4b4d-9ff9-0ee51796588d</t>
+          <t>8f205bb7-3b6f-4a6b-8e52-09547084e280</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00.000Z</t>
+          <t>2023-05-24T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AVE 7 RIO DE JANEIRO</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2023-06-14T00:00:00.000Z</t>
+          <t>AVE 4 SÃO JOÃO DA BARRA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00.000Z</t>
+          <t>2023-05-24T00:00:00.000Z</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Em 14/06/23, recebemos informações que o 2º GMAR Barra da Tijuca/RJ recebeu no dia 28/05/23 de um transeunte 01 ave silvestre, foi informado também que a ave bicou o transeunte. O militar recebeu a ave e a mesma foi acomodada próximo ao coqueiro. A ave morreu e foi descartada. Não temos informações do descarte do animal. Sem mais informações.</t>
+          <t>Ave encontrada morta, sem coleta laboratorial. Segundo informações da vigilância do município, a ave foi retirada do local por profissionais da secretaria municipal com uso de EPI.</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>CIEVS-RJ SES</t>
+          <t>Vigilância Epidemiológica de São João da Barra</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00.000Z</t>
+          <t>2023-05-24T00:00:00.000Z</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Laiza Silva de Souza</t>
+          <t>Fabiana</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Técnico / Médica Veterinária</t>
+          <t>Coordenadora de vigilância</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2º GMAR Barra da Tijuca/RJ. Av Lúcio Costa, s/nº - Barra da Tijuca/ RJ</t>
+          <t>Azeitonas, São João da Barra</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1408,64 +1403,64 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2º GMAR Barra da Tijuca/RJ. Av Lúcio Costa, s/nº - Barra da Tijuca/ RJ</t>
+          <t>ave enterrada no local que foi encontrada</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>269c2101-58bd-4bcc-9946-c4c2d5494577</t>
+          <t>6ded2b0a-08d5-44cd-9f90-c045dd04948a</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00.000Z</t>
+          <t>2023-05-24T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AVE 8 RIO DE JANEIRO (CAMPINHO)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2023-06-14T00:00:00.000Z</t>
+          <t>AVE 5 SÃO JOÃO DA BARRA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00.000Z</t>
+          <t>2023-05-24T00:00:00.000Z</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Em 14/06/23, recebemos informações do SEAPPA RJ, a respeito de 01 ave silvestre atendida no Centro de Apoio ao Diagnóstico Veterinário (CAD) da Universidade Estácio de Sá. A ave foi levada para Universidade por um militar do Batalhão de Madureira (8º Campinho CBMERJ). Sem mais informações.</t>
+          <t>Ave encontrada morta, sem coleta laboratorial. Segundo informações da vigilância do município, a ave foi retirada do local por profissionais da secretaria municipal com uso de EPI.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>CIEVS-RJ SES</t>
+          <t>Vigilância Epidemiológica de São João da Barra</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00.000Z</t>
+          <t>2023-05-24T00:00:00.000Z</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Laiza Silva de Souza</t>
+          <t>Fabiana</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Técnico / Médica Veterinária</t>
+          <t>Coordenadora de vigilância</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Azeitonas, São João da Barra</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1473,61 +1468,66 @@
           <t>ave_silvestre</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Centro de Apoio ao Diagnóstico Veterinário (CAD) da Universidade Estácio de Sá.</t>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>a0b23f52-e8a7-47ed-81fd-816cd7da4cf7</t>
+          <t>3ce0d1b0-d406-4b4d-9ff9-0ee51796588d</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-05-24T00:00:00.000Z</t>
+          <t>2023-06-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ave 2 SÃO JOÃO DA BARRA</t>
+          <t>AVE 7 RIO DE JANEIRO</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2023-06-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2023-05-24T00:00:00.000Z</t>
+          <t>2023-06-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ave encontrada morta, sem coleta laboratorial. Segundo informações da vigilância do município, a ave foi retirada do local por profissionais da secretaria municipal com uso de EPI.</t>
+          <t>Em 14/06/23, recebemos informações que o 2º GMAR Barra da Tijuca/RJ recebeu no dia 28/05/23 de um transeunte 01 ave silvestre, foi informado também que a ave bicou o transeunte. O militar recebeu a ave e a mesma foi acomodada próximo ao coqueiro. A ave morreu e foi descartada. Não temos informações do descarte do animal. Sem mais informações.</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Vigilância Epidemiológica de São João da Barra</t>
+          <t>CIEVS-RJ SES</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2023-05-24T00:00:00.000Z</t>
+          <t>2023-06-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Fabiana</t>
+          <t>Laiza Silva de Souza</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Coordenadora de vigilância</t>
+          <t>Técnico / Médica Veterinária</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Azeitonas - São João da Barra</t>
+          <t>2º GMAR Barra da Tijuca/RJ. Av Lúcio Costa, s/nº - Barra da Tijuca/ RJ</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1537,44 +1537,64 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>ave enterrada no local que foi encontrada</t>
+          <t>2º GMAR Barra da Tijuca/RJ. Av Lúcio Costa, s/nº - Barra da Tijuca/ RJ</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>f119f004-caa9-450d-813c-bc9c68ab91ae</t>
+          <t>269c2101-58bd-4bcc-9946-c4c2d5494577</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-05-29T00:00:00.000Z</t>
+          <t>2023-06-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AVE 7 SÃO JOÃO DA BARRA</t>
+          <t>AVE 8 RIO DE JANEIRO (CAMPINHO)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2023-06-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2023-05-28T00:00:00.000Z</t>
+          <t>2023-06-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Em 14/06/23, recebemos informações do SEAPPA RJ, a respeito de 01 ave silvestre atendida no Centro de Apoio ao Diagnóstico Veterinário (CAD) da Universidade Estácio de Sá. A ave foi levada para Universidade por um militar do Batalhão de Madureira (8º Campinho CBMERJ). Sem mais informações.</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>CIEVS-RJ SES</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2023-05-29T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>PRAIA DE ATAFONA</t>
+          <t>2023-06-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Laiza Silva de Souza</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Técnico / Médica Veterinária</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1582,76 +1602,61 @@
           <t>ave_silvestre</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>trinta-réis-de-bando</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Centro de Apoio ao Diagnóstico Veterinário (CAD) da Universidade Estácio de Sá.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>d7cc4e51-ce13-4d64-a337-e2dd1c70e98f</t>
+          <t>a0b23f52-e8a7-47ed-81fd-816cd7da4cf7</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-06-13T00:00:00.000Z</t>
+          <t>2023-05-24T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FOCO 1 ANGRA DOS REIS</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>33001000003</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2023-06-13T00:00:00.000Z</t>
+          <t>Ave 2 SÃO JOÃO DA BARRA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2023-06-13T00:00:00.000Z</t>
+          <t>2023-05-24T00:00:00.000Z</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Em 14/06/23 A princípio, não houve contato da ave com moradores da região. A ficha de epizootia já foi preenchida e inserida no SINAN net. Em 16/06/23, foi informado por e-mail que houve colheita de material para exame lab de uma pessoa, sem mais informações. Em 17/06/23, recebemos informações por e-mail e CIEVS Angra informou que houve colheita de amostra para exame laboratorial de uma pessoa  que teve contato com ave.  EM 18/06/23  foi informado pelo CIEVS Angra do Reis (Carlos Mansur) que a Paciente com suspeita de epizootia envolvendo ave, teve como resultado de exame laboratorial Não Detectável.  Em 19/06 - Foi identifica no GAL LACEN Nº 231203001280 paciente MÔNICA IVETH MENDENZA MONCADA, realizada colheita em 16/06 de swab orofaringe e nasofaringe, resultado NÃO DETECTÁVEL. Informa ainda que início dos sintomas gripais foi em 09/06 e a investigação começou em 07/06.</t>
+          <t>Ave encontrada morta, sem coleta laboratorial. Segundo informações da vigilância do município, a ave foi retirada do local por profissionais da secretaria municipal com uso de EPI.</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>CIEVS-RJ SES</t>
+          <t>Vigilância Epidemiológica de São João da Barra</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2023-06-13T00:00:00.000Z</t>
+          <t>2023-05-24T00:00:00.000Z</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Laiza Silva de Souza</t>
+          <t>Fabiana</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Técnico / Médica Veterinária</t>
+          <t>Coordenadora de vigilância</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Recebemos atualização do MAPA em 13/06/23, a repeito da ave silvestre Trinta-réis- real (Thalasseus maximus) localizada na praia de Piraguara, em Angra dos Reis/RJ.</t>
+          <t>Azeitonas - São João da Barra</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1659,16 +1664,21 @@
           <t>ave_silvestre</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Trinta-réis- real (Thalasseus maximus)</t>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>ave enterrada no local que foi encontrada</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>574de22a-5189-43b3-af81-36037330b447</t>
+          <t>f119f004-caa9-450d-813c-bc9c68ab91ae</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1678,27 +1688,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NEG AVE 1 ARRAIAL DO CABO</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>33002580001</t>
+          <t>AVE 7 SÃO JOÃO DA BARRA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2023-05-27T00:00:00.000Z</t>
+          <t>2023-05-28T00:00:00.000Z</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2023-05-27T00:00:00.000Z</t>
+          <t>2023-05-29T00:00:00.000Z</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Ambipar Response</t>
+          <t>PRAIA DE ATAFONA</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1708,74 +1713,74 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>cagarra-grande</t>
+          <t>trinta-réis-de-bando</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5265e034-1ff4-4539-9fa8-afdacd883ab6</t>
+          <t>d7cc4e51-ce13-4d64-a337-e2dd1c70e98f</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-06-01T00:00:00.000Z</t>
+          <t>2023-06-13T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NEG AVE 2 ARRAIAL DO CABO</t>
+          <t>FOCO 1 ANGRA DOS REIS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>33002580002</t>
+          <t>33001000003</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2023-06-13T00:00:00.000Z</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2023-05-31T00:00:00.000Z</t>
+          <t>2023-06-13T00:00:00.000Z</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>AVE ENCONTRADA NA PRAIA GRANDE ARRAIAL DO CABO, COMUNICAÇÃO FEITA PELO CIEVS NACIONAL ATRAVÉS DO ENVIO DE DADOS DO MAPA.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2023-06-03T00:00:00.000Z</t>
+          <t>Em 14/06/23 A princípio, não houve contato da ave com moradores da região. A ficha de epizootia já foi preenchida e inserida no SINAN net. Em 16/06/23, foi informado por e-mail que houve colheita de material para exame lab de uma pessoa, sem mais informações. Em 17/06/23, recebemos informações por e-mail e CIEVS Angra informou que houve colheita de amostra para exame laboratorial de uma pessoa  que teve contato com ave.  EM 18/06/23  foi informado pelo CIEVS Angra do Reis (Carlos Mansur) que a Paciente com suspeita de epizootia envolvendo ave, teve como resultado de exame laboratorial Não Detectável.  Em 19/06 - Foi identifica no GAL LACEN Nº 231203001280 paciente MÔNICA IVETH MENDENZA MONCADA, realizada colheita em 16/06 de swab orofaringe e nasofaringe, resultado NÃO DETECTÁVEL. Informa ainda que início dos sintomas gripais foi em 09/06 e a investigação começou em 07/06.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>CIEVS</t>
+          <t>CIEVS-RJ SES</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2023-05-31T00:00:00.000Z</t>
+          <t>2023-06-13T00:00:00.000Z</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Marianna</t>
+          <t>Laiza Silva de Souza</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Técnica de vigilância</t>
+          <t>Técnico / Médica Veterinária</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Praia Grande - Arraial do Cabo</t>
+          <t>Recebemos atualização do MAPA em 13/06/23, a repeito da ave silvestre Trinta-réis- real (Thalasseus maximus) localizada na praia de Piraguara, em Angra dos Reis/RJ.</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1785,54 +1790,44 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>grazina-de-barriga-branca</t>
+          <t>Trinta-réis- real (Thalasseus maximus)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bd5d4f72-cbe0-4c31-aa66-dd41e0781a87</t>
+          <t>574de22a-5189-43b3-af81-36037330b447</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-05-25T00:00:00.000Z</t>
+          <t>2023-05-29T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NEG AVE 1 BARRA MANSA/VOLTA REDONDA</t>
+          <t>NEG AVE 1 ARRAIAL DO CABO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>33004070003</t>
+          <t>33002580001</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2023-05-25T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Secretaria Estadual de Agricultura</t>
+          <t>2023-05-27T00:00:00.000Z</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2023-05-25T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>SES</t>
+          <t>2023-05-27T00:00:00.000Z</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Av. Tenente José Eduardo, 560 - Ano Bom, Barra Mansa - RJ (SESC Barra Mansa)</t>
+          <t>Ambipar Response</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1842,59 +1837,74 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Coruja</t>
+          <t>cagarra-grande</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>R. 93-C, 1171 - Vila Santa Cecília, Volta Redonda - RJ (Zoológico de Volta Redonda)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>89233ab6-0267-426b-94d4-2aeffc76d136</t>
+          <t>5265e034-1ff4-4539-9fa8-afdacd883ab6</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00.000Z</t>
+          <t>2023-06-01T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FOCO 1 CABO FRIO</t>
+          <t>NEG AVE 2 ARRAIAL DO CABO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>33007040001</t>
+          <t>33002580002</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00.000Z</t>
+          <t>2023-05-31T00:00:00.000Z</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Daphne Wrobel Goldberg - Veterinária- residente Cabo Frio Clara Sardina Varella - médica veterinária - residente Araruama. Danyielim Elias Oliveira - Veterinaria - RT da base Araruama - residente de Araruama  Rafael Bruno Cabral - auxiliar técnico tratador - residente de Araruama Os 04 profissionais da base de ARARUAMA utilizaram máscara, Luva, óculos, gorro, bota e macacão adequados na manipulação do animal!</t>
+          <t>AVE ENCONTRADA NA PRAIA GRANDE ARRAIAL DO CABO, COMUNICAÇÃO FEITA PELO CIEVS NACIONAL ATRAVÉS DO ENVIO DE DADOS DO MAPA.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2023-06-03T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>CIEVS</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2023-05-31T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Marianna</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Técnica de vigilância</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>PONTAL DE SANTO ANTONIO</t>
+          <t>Praia Grande - Arraial do Cabo</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1904,59 +1914,54 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>trinta-réis-de-bando</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Ambipar Response</t>
+          <t>grazina-de-barriga-branca</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>cd092b63-350e-4207-8d6a-e55ba7c504da</t>
+          <t>bd5d4f72-cbe0-4c31-aa66-dd41e0781a87</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-05-30T00:00:00.000Z</t>
+          <t>2023-05-25T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NEG AVE 1 DUQUE DE CAXIAS</t>
+          <t>NEG AVE 1 BARRA MANSA/VOLTA REDONDA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>33017020012</t>
+          <t>33004070003</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2023-05-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2023-06-03T00:00:00.000Z</t>
+          <t>2023-05-25T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Secretaria Estadual de Agricultura</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2023-05-30T00:00:00.000Z</t>
+          <t>2023-05-25T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>SES</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>RUA RUTH, 200, CAMPOS ELÍSEOS</t>
+          <t>Av. Tenente José Eduardo, 560 - Ano Bom, Barra Mansa - RJ (SESC Barra Mansa)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1966,49 +1971,59 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Biguá</t>
+          <t>Coruja</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>R. 93-C, 1171 - Vila Santa Cecília, Volta Redonda - RJ (Zoológico de Volta Redonda)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>18458921-e076-453b-bf2b-166ec153891a</t>
+          <t>89233ab6-0267-426b-94d4-2aeffc76d136</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-05-30T00:00:00.000Z</t>
+          <t>2023-05-22T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NEG AVE 1 MACAÉ</t>
+          <t>FOCO 1 CABO FRIO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>33024030003</t>
+          <t>33007040001</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2023-05-27T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2023-05-30T00:00:00.000Z</t>
+          <t>2023-05-22T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Daphne Wrobel Goldberg - Veterinária- residente Cabo Frio Clara Sardina Varella - médica veterinária - residente Araruama. Danyielim Elias Oliveira - Veterinaria - RT da base Araruama - residente de Araruama  Rafael Bruno Cabral - auxiliar técnico tratador - residente de Araruama Os 04 profissionais da base de ARARUAMA utilizaram máscara, Luva, óculos, gorro, bota e macacão adequados na manipulação do animal!</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Embarcação atracada no porto de Macaé</t>
+          <t>PONTAL DE SANTO ANTONIO</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2018,69 +2033,59 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>albatroz-de-nariz-amarelo</t>
+          <t>trinta-réis-de-bando</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Ambipar Response</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>f8c84f3a-1b4f-47c3-9066-b579946b1533</t>
+          <t>cd092b63-350e-4207-8d6a-e55ba7c504da</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-05-29T00:00:00.000Z</t>
+          <t>2023-05-30T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FOCO 2 NITERÓI</t>
+          <t>NEG AVE 1 DUQUE DE CAXIAS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>33033020002</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2023-05-29T00:00:00.000Z</t>
+          <t>33017020012</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2023-05-29T00:00:00.000Z</t>
+          <t>2023-05-30T00:00:00.000Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2023-06-05T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>SOPRECAM - Associação de Moradores de Camboinhas</t>
+          <t>2023-06-03T00:00:00.000Z</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2023-05-29T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Alexandre</t>
+          <t>2023-05-30T00:00:00.000Z</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Av. Dr. Geraldo de Melo Ourivio (na calçada ao lado da rua 28</t>
+          <t>RUA RUTH, 200, CAMPOS ELÍSEOS</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2090,84 +2095,49 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Fragata (Fregata magnificens)</t>
+          <t>Biguá</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Empresa Econservation - Araruama</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>d1c7f423-34d2-42a9-907a-19e22dded3b5</t>
+          <t>18458921-e076-453b-bf2b-166ec153891a</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-06-01T00:00:00.000Z</t>
+          <t>2023-05-30T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FOCO 3 NITERÓI</t>
+          <t>NEG AVE 1 MACAÉ</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>33033020003</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2023-06-01T00:00:00.000Z</t>
+          <t>33024030003</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2023-05-31T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Ave encontrada em varanda de moradora do Barreto. Não conseguia voar.</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>CIEVS Estadual</t>
+          <t>2023-05-27T00:00:00.000Z</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2023-06-01T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Marianna</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Técnica de Vigilância</t>
+          <t>2023-05-30T00:00:00.000Z</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Avenida Machado, 55, Barreto, Niterói</t>
+          <t>Embarcação atracada no porto de Macaé</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2177,74 +2147,69 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>trinta-réis-real (Thalasseus maximus)</t>
+          <t>albatroz-de-nariz-amarelo</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>recolhido pelo PMP - Econservation</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>92655616-01d0-4a4d-8030-ba5bb0c313fd</t>
+          <t>f8c84f3a-1b4f-47c3-9066-b579946b1533</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-06-10T00:00:00.000Z</t>
+          <t>2023-05-29T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NEG AVE 1 PARATY</t>
+          <t>FOCO 2 NITERÓI</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>33038070004</t>
+          <t>33033020002</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023-06-10T00:00:00.000Z</t>
+          <t>2023-05-29T00:00:00.000Z</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2023-06-10T00:00:00.000Z</t>
+          <t>2023-05-29T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2023-06-05T00:00:00.000Z</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>CIEVS-RJ SES</t>
+          <t>SOPRECAM - Associação de Moradores de Camboinhas</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2023-05-29T00:00:00.000Z</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Laiza Silva de Souza</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Técnico / Médica Veterinária</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Centro de Reabilitação de Animais Silvestres (Cras) Eletronuclear</t>
+          <t>Av. Dr. Geraldo de Melo Ourivio (na calçada ao lado da rua 28</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2254,74 +2219,84 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Quero-Quero</t>
+          <t>Fragata (Fregata magnificens)</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>sim</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Sem informações. Notificação chegou através da atualização do MS em 10/06/23</t>
+          <t>Empresa Econservation - Araruama</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>97a90e3f-7c8a-4fda-ade7-c17e83cea924</t>
+          <t>d1c7f423-34d2-42a9-907a-19e22dded3b5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00.000Z</t>
+          <t>2023-06-01T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FOCO 1 QUEIMADOS</t>
+          <t>FOCO 3 NITERÓI</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>33041440004</t>
+          <t>33033020003</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00.000Z</t>
+          <t>2023-06-01T00:00:00.000Z</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00.000Z</t>
+          <t>2023-05-31T00:00:00.000Z</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Em 14/06/23, recebemos informações do SEAPPA RJ, a respeito de 01 ave silvestre na região de Queimados/RJ. Entrei em contato com a Secretaria de Agricultura, falei com o Srº Tarcísio e recebemos por meio do e-mail eletrônico semdrag2021@gmail.com , o relato do caso.  A ave foi encontrada por um munícipe, que relatou o seguinte fato: Estava passando pela estrada quando viu um mototáxi (sem identificação), retirando a ave da rua e colocando na calçada, o mesmo ao retornar do seu destino, notou que a ave se encontrava no mesmo lugar, então providenciou uma caixa de papelão, pegou a ave com as mãos (sem EPIs), colocou na caixa e levou para sua residência, depois se dirigiu até o destacamento do Corpo de Bombeiros não obtendo informação sobre onde destinar a ave, o mesmo então retornou para sua residência e hoje (14/06 pela manhã procurou a Delegacia, foi orientado a procurar a Secretaria Municipal de Ambiente, passou então pela secretaria de ambiente e depois foi para a Secretaria de Agricultura com a ave. Imediatamente pedimos para ele colocar a caixa em um local mais isolado das nossas instalações e foi feito contato com o núcleo de Defesa Agropecuária do Rio de Janeiro e com a Vigilância Sanitária do Município. A ave foi encontrada no endereço: Estrada Carlos Sampaio, Esquina com a rua: Adib Saad, Bairro Novo Eldorado/Paraíso - Queimados/RJ. Expostos: Mototáxi (sem identificação) e Adriano Felipe, cujo endereço é: Benedito Borges Barros, (antiga Rua Santa Rita) 482, QD 04, Bairro São Roque - Queimados/RJ. Próximo à ponte. Nenhum dos que tiveram contato com a ave estava usando EPIs. A ave está localizada no endereço R. Francisco Gabriel Neto, s/nº - Bairro Vila Camarim - Queimados/RJ. Ponto de Referência: Horto Municipal Luiz Gonzaga de Macedo. Em 15/06/23, foi coletado material para exame laboratorial</t>
+          <t>Ave encontrada em varanda de moradora do Barreto. Não conseguia voar.</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>CIEVS-RJ SES</t>
+          <t>CIEVS Estadual</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00.000Z</t>
+          <t>2023-06-01T00:00:00.000Z</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Laiza Silva de Souza</t>
+          <t>Marianna</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Técnico / Médica Veterinária</t>
+          <t>Técnica de Vigilância</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Estrada Carlos Sampaio, Esquina com a rua: Adibe Saad, Bairro Novo Eldorado/Paraíso - Queimados/RJ.</t>
+          <t>Avenida Machado, 55, Barreto, Niterói</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2331,7 +2306,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Trinta-réis-real (Thalasseus maximus)</t>
+          <t>trinta-réis-real (Thalasseus maximus)</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2339,73 +2314,143 @@
           <t>1</t>
         </is>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>R. Francisco Gabriel Neto, s/nº - Bairro Vila Camarim - Queimados/RJ. Ponto de Referência: Horto Municipal Luiz Gonzaga de Macedo.</t>
+          <t>recolhido pelo PMP - Econservation</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>45f24626-ce28-4652-b33e-7c0380e25dd7</t>
+          <t>92655616-01d0-4a4d-8030-ba5bb0c313fd</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00.000Z</t>
+          <t>2023-06-10T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NEG AVE 1 BARRA DA TIJUCA</t>
+          <t>NEG AVE 1 PARATY</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>33045570053</t>
+          <t>33038070004</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2023-06-10T00:00:00.000Z</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00.000Z</t>
+          <t>2023-06-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>CIEVS-RJ SES</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Laiza Silva de Souza</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Técnico / Médica Veterinária</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Centro de Reabilitação de Animais Silvestres (Cras) Eletronuclear</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>ave_silvestre</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Quero-Quero</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Sem informações. Notificação chegou através da atualização do MS em 10/06/23</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>afede827-a0d2-45f3-8825-f247147acb6a</t>
+          <t>97a90e3f-7c8a-4fda-ade7-c17e83cea924</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-05-23T00:00:00.000Z</t>
+          <t>2023-06-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FOCO 1 RIO DE JANEIRO (GALEÃO)</t>
+          <t>FOCO 1 QUEIMADOS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>33045570054</t>
+          <t>33041440004</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2023-06-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2023-05-23T00:00:00.000Z</t>
+          <t>2023-06-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Em 14/06/23, recebemos informações do SEAPPA RJ, a respeito de 01 ave silvestre na região de Queimados/RJ. Entrei em contato com a Secretaria de Agricultura, falei com o Srº Tarcísio e recebemos por meio do e-mail eletrônico semdrag2021@gmail.com , o relato do caso.  A ave foi encontrada por um munícipe, que relatou o seguinte fato: Estava passando pela estrada quando viu um mototáxi (sem identificação), retirando a ave da rua e colocando na calçada, o mesmo ao retornar do seu destino, notou que a ave se encontrava no mesmo lugar, então providenciou uma caixa de papelão, pegou a ave com as mãos (sem EPIs), colocou na caixa e levou para sua residência, depois se dirigiu até o destacamento do Corpo de Bombeiros não obtendo informação sobre onde destinar a ave, o mesmo então retornou para sua residência e hoje (14/06 pela manhã procurou a Delegacia, foi orientado a procurar a Secretaria Municipal de Ambiente, passou então pela secretaria de ambiente e depois foi para a Secretaria de Agricultura com a ave. Imediatamente pedimos para ele colocar a caixa em um local mais isolado das nossas instalações e foi feito contato com o núcleo de Defesa Agropecuária do Rio de Janeiro e com a Vigilância Sanitária do Município. A ave foi encontrada no endereço: Estrada Carlos Sampaio, Esquina com a rua: Adib Saad, Bairro Novo Eldorado/Paraíso - Queimados/RJ. Expostos: Mototáxi (sem identificação) e Adriano Felipe, cujo endereço é: Benedito Borges Barros, (antiga Rua Santa Rita) 482, QD 04, Bairro São Roque - Queimados/RJ. Próximo à ponte. Nenhum dos que tiveram contato com a ave estava usando EPIs. A ave está localizada no endereço R. Francisco Gabriel Neto, s/nº - Bairro Vila Camarim - Queimados/RJ. Ponto de Referência: Horto Municipal Luiz Gonzaga de Macedo. Em 15/06/23, foi coletado material para exame laboratorial</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>CIEVS-RJ SES</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2023-05-27T00:00:00.000Z</t>
+          <t>2023-06-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Laiza Silva de Souza</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Técnico / Médica Veterinária</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>RUNWAY 10-28, QUADRANTE J14</t>
+          <t>Estrada Carlos Sampaio, Esquina com a rua: Adibe Saad, Bairro Novo Eldorado/Paraíso - Queimados/RJ.</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2415,7 +2460,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>trinta-réis-de-bando</t>
+          <t>Trinta-réis-real (Thalasseus maximus)</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -2423,123 +2468,73 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>sim</t>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>R. Francisco Gabriel Neto, s/nº - Bairro Vila Camarim - Queimados/RJ. Ponto de Referência: Horto Municipal Luiz Gonzaga de Macedo.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0b7f7e2d-039b-427d-baaa-1de277bc2631</t>
+          <t>45f24626-ce28-4652-b33e-7c0380e25dd7</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-06-01T00:00:00.000Z</t>
+          <t>2023-05-22T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NEG AVE 3 - RESERVA/RIO DE JANEIRO</t>
+          <t>NEG AVE 1 BARRA DA TIJUCA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>33045570055</t>
+          <t>33045570053</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2023-05-31T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>CIEVS</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2023-05-31T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Marianna</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Técnico de Vigilancia</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Praia da Reserva</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>ave_silvestre</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>bobo-pequeno</t>
+          <t>2023-05-22T00:00:00.000Z</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3d04f7c4-6ad3-4637-ae49-cb3cd92c7fea</t>
+          <t>afede827-a0d2-45f3-8825-f247147acb6a</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-06-12T00:00:00.000Z</t>
+          <t>2023-05-23T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FOCO 5 RIO DE JANEIRO</t>
+          <t>FOCO 1 RIO DE JANEIRO (GALEÃO)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>33045570056</t>
+          <t>33045570054</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2023-06-12T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>CIEVS-RJ SES</t>
+          <t>2023-05-23T00:00:00.000Z</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2023-06-12T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Laiza Silva de Souza</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Técnico / Médica Veterinária</t>
+          <t>2023-05-27T00:00:00.000Z</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Club Guanabara - Rio de Janeiro</t>
+          <t>RUNWAY 10-28, QUADRANTE J14</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2549,64 +2544,69 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Biguá (Phalacrocorax brasilianos )</t>
+          <t>trinta-réis-de-bando</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>sim</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>87c23a72-a76d-4651-b795-85e9df218cfa</t>
+          <t>0b7f7e2d-039b-427d-baaa-1de277bc2631</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-06-13T00:00:00.000Z</t>
+          <t>2023-06-01T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FOCO 6 RIO DE JANEIRO</t>
+          <t>NEG AVE 3 - RESERVA/RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>33045570057</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2023-06-13T00:00:00.000Z</t>
+          <t>33045570055</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2023-06-13T00:00:00.000Z</t>
+          <t>2023-05-31T00:00:00.000Z</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>CIEVS-RJ SES</t>
+          <t>CIEVS</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2023-06-13T00:00:00.000Z</t>
+          <t>2023-05-31T00:00:00.000Z</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Laiza Silva de Souza</t>
+          <t>Marianna</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Técnico / Médica Veterinária</t>
+          <t>Técnico de Vigilancia</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Recebemos atualização do MAPA informando sobre a ave silvestre Trinta-réis-real (Thalasseus maximus) encontrada em terreno na comunidade na Ilha do Governador/RJ</t>
+          <t>Praia da Reserva</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2616,59 +2616,59 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Trinta-réis-real (Thalasseus maximus)</t>
+          <t>bobo-pequeno</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>f08573f0-3c78-4a65-b2e7-fc7ca60adeb9</t>
+          <t>3d04f7c4-6ad3-4637-ae49-cb3cd92c7fea</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00.000Z</t>
+          <t>2023-06-12T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FOCO 1 SÃO JOÃO DA BARRA/ CAMPOS</t>
+          <t>FOCO 5 RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>33050000004</t>
+          <t>33045570056</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2023-05-01T00:00:00.000Z</t>
+          <t>2023-06-12T00:00:00.000Z</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>CIEVS-Campos dos Goytacazes</t>
+          <t>CIEVS-RJ SES</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00.000Z</t>
+          <t>2023-06-12T00:00:00.000Z</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Mylena Ferreira Tavares</t>
+          <t>Laiza Silva de Souza</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Enfermeira CIEVS Municipal de Campos dos Goytacazes</t>
+          <t>Técnico / Médica Veterinária</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Porto do Açu - São João da Barra/RJ</t>
+          <t>Club Guanabara - Rio de Janeiro</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2678,64 +2678,69 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Thalasseus acuflavidus (nome popular: Trinta Réis de Bando)</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Hospital Veterinário Medical Pet- Avenida Dr. Arthur Bernardes, 801.</t>
+          <t>Biguá (Phalacrocorax brasilianos )</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1b72dcff-4ca5-4ba2-8da7-fb10cc65d167</t>
+          <t>87c23a72-a76d-4651-b795-85e9df218cfa</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-05-28T00:00:00.000Z</t>
+          <t>2023-06-13T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FOCO 6 São João da Barra</t>
+          <t>FOCO 6 RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>33050000005</t>
+          <t>33045570057</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2023-06-13T00:00:00.000Z</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2023-05-26T00:00:00.000Z</t>
+          <t>2023-06-13T00:00:00.000Z</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2 AVES NESSE FOCO (TRINTA REIS DE BANDO)</t>
+          <t>Em 19/06, recebemos notificação da central 193 a respeito de 01 ave silvestre suspeita de IAAP. Protocolo nºRIO 269431004. Notificante: Sra Gisele Pegoraro da Cunha, nascida em 09/10/1976, telefone (21 98888-6689. Notificante informa que na data de hoje (19/06/23 às 13h30 apareceu ave silvestre no quintal da casa. Informa também que possui 08 cães, 01 galinha e 01 galo. Os animais foram afastados da ave silvestre. Informa que a ave silvestre está viva, apresentando sinais de incoordenação motora , asa caída e andar em círculos. Endereço da notificante Rua Soldado Arlindo da Silva, nº72, Guaratiba/RJ. Ponto de referência Escola Municipal Professora Myrthes Wenzel. Dados do esposo da notificante, Sr Jonny Barreto Nobre, data de nascimento 31/01/1972.                                             Em 20/06/23 recebemos do PONTO FOCAL SEAPPA RJ, foi informado através do e-mail notifica.gripeaviaria@gmail.com que a ave morreu. E que por se tratar de espécie Trinta-réis-real (Thalasseus maximus)  o mesmo seria resgatado e eutanasiado, pois essa espécie já foi diagnosticada como positiva no MRJ.  Em 20/06 Recebemos e-mail do CIEVS RIO informando que o responsável em realizar a retirada da ave foi uma Veterinária Epidemiologista de Itacuruçá. Informou ainda que Sra Gisele e Sr Jonny não são expostos. "</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>CIEVS-RJ SES</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2023-05-28T00:00:00.000Z</t>
+          <t>2023-06-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Laiza Silva de Souza</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Técnico / Médica Veterinária</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>VAST INFRAESTRUTURA</t>
+          <t>Recebemos atualização do MAPA informando sobre a ave silvestre Trinta-réis-real (Thalasseus maximus) encontrada em terreno na comunidade na Ilha do Governador/RJ</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2745,49 +2750,59 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>trinta-réis-de-bando</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>Trinta-réis-real (Thalasseus maximus)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>b5a4de54-8dcd-4f81-ba7e-3ac29489ae51</t>
+          <t>f08573f0-3c78-4a65-b2e7-fc7ca60adeb9</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-05-29T00:00:00.000Z</t>
+          <t>2023-05-22T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FOCO 9 SÃO JOÃO DA BARRA</t>
+          <t>FOCO 1 SÃO JOÃO DA BARRA/ CAMPOS</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>33050000006</t>
+          <t>33050000004</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2023-05-28T00:00:00.000Z</t>
+          <t>2023-05-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>CIEVS-Campos dos Goytacazes</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2023-05-28T00:00:00.000Z</t>
+          <t>2023-05-22T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Mylena Ferreira Tavares</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Enfermeira CIEVS Municipal de Campos dos Goytacazes</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Praia de Atafona</t>
+          <t>Porto do Açu - São João da Barra/RJ</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2797,49 +2812,64 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>trinta-réis- de -bando</t>
+          <t>Thalasseus acuflavidus (nome popular: Trinta Réis de Bando)</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Hospital Veterinário Medical Pet- Avenida Dr. Arthur Bernardes, 801.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>637f21ee-6d7a-4e01-be59-39171362d6ff</t>
+          <t>1b72dcff-4ca5-4ba2-8da7-fb10cc65d167</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-05-30T00:00:00.000Z</t>
+          <t>2023-05-28T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NEG AVE 8 SÃO JOÃO DA BARRA</t>
+          <t>FOCO 6 São João da Barra</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>33050000007</t>
+          <t>33050000005</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2023-05-29T00:00:00.000Z</t>
+          <t>2023-05-26T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2 AVES NESSE FOCO (TRINTA REIS DE BANDO)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2023-05-30T00:00:00.000Z</t>
+          <t>2023-05-28T00:00:00.000Z</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>ÁREA PORTUÁRIA DE SÃO JOÃO DA BARRA</t>
+          <t>VAST INFRAESTRUTURA</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -2849,7 +2879,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>trinta-réis-ártico</t>
+          <t>trinta-réis-de-bando</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -2861,52 +2891,37 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1292afa7-9709-477c-999d-322fd94b053e</t>
+          <t>b5a4de54-8dcd-4f81-ba7e-3ac29489ae51</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-06-04T00:00:00.000Z</t>
+          <t>2023-05-29T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FOCO 10 São João da Barra</t>
+          <t>FOCO 9 SÃO JOÃO DA BARRA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>33050000008</t>
+          <t>33050000006</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2023-06-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>3 aves no mesmo foco (Gaivota-de-cabeça-cinza, trinta-réis-de-bico-vermelho, e trinta-réis-de-bando)</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>CIEVSRJ</t>
+          <t>2023-05-28T00:00:00.000Z</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2023-06-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Gabriella Nazario</t>
+          <t>2023-05-28T00:00:00.000Z</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>VAST Infraestrutura</t>
+          <t>Praia de Atafona</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2916,69 +2931,49 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Gaivota-de-cabeça-cinza, trinta-réis-de-bico-vermelho</t>
+          <t>trinta-réis- de -bando</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4e77cd8b-a618-4953-867b-fcdc5c5cdb8a</t>
+          <t>637f21ee-6d7a-4e01-be59-39171362d6ff</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-06-19T00:00:00.000Z</t>
+          <t>2023-05-30T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AVE 11 São João da Barra</t>
+          <t>NEG AVE 8 SÃO JOÃO DA BARRA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>33050000009</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2023-06-19T00:00:00.000Z</t>
+          <t>33050000007</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2023-06-16T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Em 19/06/23, recebemos informações do SEAPPA RJ a respeito da ave silvestre. Sem contactantes. Colaboradora da defesa agropecuária realizou a colheita do material para análise laboratorial.</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>CIEVS-RJ SES</t>
+          <t>2023-05-29T00:00:00.000Z</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2023-06-19T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Laiza Silva de Souza</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Técnico / Médica Veterinária</t>
+          <t>2023-05-30T00:00:00.000Z</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>ÁREA PORTUÁRIA DA VAST INFRAESTRUTURA</t>
+          <t>ÁREA PORTUÁRIA DE SÃO JOÃO DA BARRA</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2988,82 +2983,221 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Trinta-réis-real (Thalasseus maximus)</t>
+          <t>trinta-réis-ártico</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>1292afa7-9709-477c-999d-322fd94b053e</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2023-06-04T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>FOCO 10 São João da Barra</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33050000008</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2023-06-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>3 aves no mesmo foco (Gaivota-de-cabeça-cinza, trinta-réis-de-bico-vermelho, e trinta-réis-de-bando)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>CIEVSRJ</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2023-06-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Gabriella Nazario</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>VAST Infraestrutura</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>ave_silvestre</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Gaivota-de-cabeça-cinza, trinta-réis-de-bico-vermelho</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4e77cd8b-a618-4953-867b-fcdc5c5cdb8a</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2023-06-19T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>AVE 11 São João da Barra</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33050000009</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2023-06-19T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2023-06-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Em 19/06/23, recebemos informações do SEAPPA RJ a respeito da ave silvestre. Sem contactantes. Colaboradora da defesa agropecuária realizou a colheita do material para análise laboratorial.</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>CIEVS-RJ SES</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2023-06-19T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Laiza Silva de Souza</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Técnico / Médica Veterinária</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>ÁREA PORTUÁRIA DA VAST INFRAESTRUTURA</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>ave_silvestre</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Trinta-réis-real (Thalasseus maximus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>8d8a1bfa-7800-455c-8f80-0291c590c2b7</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>2023-06-14T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>AVE 1 SAQUAREMA</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>33055050003</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2023-06-14T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>2023-06-14T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>GMAR de Saquarema/RJ - Referente ao 27º GBM de Araruama/RJ Hoje recebemos informações do SEAPPA RJ, a respeito 01 ave silvestre que foi entregue por transeunte para o GMAR de Saquarema. Por meio de whatsapp, Major Neto informou o e-mail do 27º GBM de Araruama (127dbm@gmail.com), informou por telefone que o guarda civil (André) iria apurar as informações. Entrei em contato com o guarda civil André (22999936638 expliquei o caso e o mesmo informou que iria apurar as informações.  Hoje, por volta das 18:25h o guarda vida André, por meio de whatsapp atualizou o caso. Segue o relato: informou que na data de hoje (14/06 às 08;30h o guarda vida Flávio foi abordado por um cidadão com as seguintes características: alto, branco, gordo, de cabelo encaracolado, camisa camuflada, bermuda cinza. O cidadão estava com a ave nas mãos, aparentando estar acidentada. Informou ainda que o guarda vida em nenhum momento teve contato físico com o cidadão e nem com a ave. Manteve distância de ambos, solicitou ao cidadão que colocasse a ave no canto do muro. Foi acionado a guarda ambiental. Informou ainda que estão solicitando imagens de câmeras para identificar o cidadão, pois o guarda vida Flávio informou que nunca viu esse cidadão em Saquarema/RJ. Sem mais informações. Em 14/06/23 foi coletado material da ave para exame laboratorial. Em contato telefônico com Vigilância Sanitária de Saquarema foi informado que a ave possui apenas um exposto, um homem que encontrou a ave e levou ao QGMAR, porém não há nenhuma informação sobre esse indivíduo, não se sabe se é um turista ou morador.</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>CIEVS-RJ SES</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>2023-06-14T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>Laiza Silva de Souza</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>Técnico / Médica Veterinária</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>GMAR de Saquarema</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>ave_silvestre</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>ave_silvestre</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
         <is>
           <t>Trinta-réis-real (Thalasseus maximus)</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/inst/planilha.xlsx
+++ b/inst/planilha.xlsx
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FOCO 1 QUEIMADOS</t>
+          <t>AVE 1 QUEIMADOS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Em 14/06/23, recebemos informações do SEAPPA RJ, a respeito de 01 ave silvestre na região de Queimados/RJ. Entrei em contato com a Secretaria de Agricultura, falei com o Srº Tarcísio e recebemos por meio do e-mail eletrônico semdrag2021@gmail.com , o relato do caso.  A ave foi encontrada por um munícipe, que relatou o seguinte fato: Estava passando pela estrada quando viu um mototáxi (sem identificação), retirando a ave da rua e colocando na calçada, o mesmo ao retornar do seu destino, notou que a ave se encontrava no mesmo lugar, então providenciou uma caixa de papelão, pegou a ave com as mãos (sem EPIs), colocou na caixa e levou para sua residência, depois se dirigiu até o destacamento do Corpo de Bombeiros não obtendo informação sobre onde destinar a ave, o mesmo então retornou para sua residência e hoje (14/06 pela manhã procurou a Delegacia, foi orientado a procurar a Secretaria Municipal de Ambiente, passou então pela secretaria de ambiente e depois foi para a Secretaria de Agricultura com a ave. Imediatamente pedimos para ele colocar a caixa em um local mais isolado das nossas instalações e foi feito contato com o núcleo de Defesa Agropecuária do Rio de Janeiro e com a Vigilância Sanitária do Município. A ave foi encontrada no endereço: Estrada Carlos Sampaio, Esquina com a rua: Adib Saad, Bairro Novo Eldorado/Paraíso - Queimados/RJ. Expostos: Mototáxi (sem identificação) e Adriano Felipe, cujo endereço é: Benedito Borges Barros, (antiga Rua Santa Rita) 482, QD 04, Bairro São Roque - Queimados/RJ. Próximo à ponte. Nenhum dos que tiveram contato com a ave estava usando EPIs. A ave está localizada no endereço R. Francisco Gabriel Neto, s/nº - Bairro Vila Camarim - Queimados/RJ. Ponto de Referência: Horto Municipal Luiz Gonzaga de Macedo. Em 15/06/23, foi coletado material para exame laboratorial</t>
+          <t>Em 14/06/23, recebemos informações do SEAPPA RJ, a respeito de 01 ave silvestre na região de Queimados/RJ. Entrei em contato com a Secretaria de Agricultura, falei com o Srº Tarcísio e recebemos por meio do e-mail eletrônico semdrag2021@gmail.com , o relato do caso. A ave foi encontrada por um munícipe, que relatou o seguinte fato: Estava passando pela estrada quando viu um mototáxi (sem identificação), retirando a ave da rua e colocando na calçada, o mesmo ao retornar do seu destino, notou que a ave se encontrava no mesmo lugar, então providenciou uma caixa de papelão, pegou a ave com as mãos (sem EPIs), colocou na caixa e levou para sua residência, depois se dirigiu até o destacamento do Corpo de Bombeiros não obtendo informação sobre onde destinar a ave, o mesmo então retornou para sua residência e hoje (14/06 pela manhã procurou a Delegacia, foi orientado a procurar a Secretaria Municipal de Ambiente, passou então pela secretaria de ambiente e depois foi para a Secretaria de Agricultura com a ave. Imediatamente pedimos para ele colocar a caixa em um local mais isolado das nossas instalações e foi feito contato com o núcleo de Defesa Agropecuária do Rio de Janeiro e com a Vigilância Sanitária do Município. A ave foi encontrada no endereço: Estrada Carlos Sampaio, Esquina com a rua: Adib Saad, Bairro Novo Eldorado/Paraíso - Queimados/RJ. São 02 expostos: o Mototáxi (sem identificação); e o Adriano Felipe, cujo endereço é: Benedito Borges Barros, (antiga Rua Santa Rita) 482, QD 04, Bairro São Roque - Queimados/RJ. Próximo à ponte. Nenhum dos que tiveram contato com a ave estava usando EPIs. A ave está localizada no endereço R. Francisco Gabriel Neto, s/nº - Bairro Vila Camarim - Queimados/RJ. Ponto de Referência: Horto Municipal Luiz Gonzaga de Macedo. Em 15/06/23, foi coletado material para exame laboratorial</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>GMAR de Saquarema/RJ - Referente ao 27º GBM de Araruama/RJ Hoje recebemos informações do SEAPPA RJ, a respeito 01 ave silvestre que foi entregue por transeunte para o GMAR de Saquarema. Por meio de whatsapp, Major Neto informou o e-mail do 27º GBM de Araruama (127dbm@gmail.com), informou por telefone que o guarda civil (André) iria apurar as informações. Entrei em contato com o guarda civil André (22999936638 expliquei o caso e o mesmo informou que iria apurar as informações.  Hoje, por volta das 18:25h o guarda vida André, por meio de whatsapp atualizou o caso. Segue o relato: informou que na data de hoje (14/06 às 08;30h o guarda vida Flávio foi abordado por um cidadão com as seguintes características: alto, branco, gordo, de cabelo encaracolado, camisa camuflada, bermuda cinza. O cidadão estava com a ave nas mãos, aparentando estar acidentada. Informou ainda que o guarda vida em nenhum momento teve contato físico com o cidadão e nem com a ave. Manteve distância de ambos, solicitou ao cidadão que colocasse a ave no canto do muro. Foi acionado a guarda ambiental. Informou ainda que estão solicitando imagens de câmeras para identificar o cidadão, pois o guarda vida Flávio informou que nunca viu esse cidadão em Saquarema/RJ. Sem mais informações. Em 14/06/23 foi coletado material da ave para exame laboratorial. Em contato telefônico com Vigilância Sanitária de Saquarema foi informado que a ave possui apenas um exposto, um homem que encontrou a ave e levou ao QGMAR, porém não há nenhuma informação sobre esse indivíduo, não se sabe se é um turista ou morador.</t>
+          <t>GMAR de Saquarema/RJ - Referente ao 27º GBM de Araruama/RJ. Em 14/06/23, recebemos informações do SEAPPA RJ, a respeito 01 ave silvestre que foi entregue por transeunte para o GMAR de Saquarema. Por meio de whatsapp, Major Neto informou o e-mail do 27º GBM de Araruama (127dbm@gmail.com), informou por telefone que o guarda civil (André) iria apurar as informações. Entrei em contato com o guarda civil André (22999936638 expliquei o caso e o mesmo informou que iria apurar as informações.  Hoje (14/06/23, por volta das 18:25h o guarda vida André, por meio de whatsapp atualizou o caso. Segue o relato: informou que na data de hoje (14/06 às 08;30h, o guarda vida Flávio foi abordado por um cidadão com as seguintes características: alto, branco, gordo, de cabelo encaracolado, camisa camuflada, bermuda cinza. O cidadão estava com a ave nas mãos, aparentando estar acidentada. Informou ainda que o guarda vida em nenhum momento teve contato físico com o cidadão e nem com a ave. Manteve distância de ambos, solicitou ao cidadão que colocasse a ave no canto do muro. Foi acionado a Guarda Ambiental. Informou ainda que estão solicitando imagens de câmeras para identificar o cidadão, pois o guarda vida Flávio informou que nunca viu esse cidadão em Saquarema/RJ. Sem mais informações. Em 14/06/23 foi coletado material da ave para exame laboratorial. Em contato telefônico com Vigilância Sanitária de Saquarema foi informado que a ave possui apenas um exposto, um homem que encontrou a ave e levou ao GMAR, porém não há nenhuma informação sobre esse indivíduo, não se sabe se é um turista ou morador. Em 14/06/23 foi coletado material da ave para exame laboratorial.</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">

--- a/inst/planilha.xlsx
+++ b/inst/planilha.xlsx
@@ -3067,7 +3067,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AVE 11 São João da Barra</t>
+          <t>FOCO 11 São João da Barra</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
